--- a/build.xlsx
+++ b/build.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/slippinjim/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F6D5E3-5F79-D046-850E-889F8225CE27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B385196-B501-B14E-A401-FAABB3DE0A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7580" yWindow="500" windowWidth="20260" windowHeight="16340" xr2:uid="{328E4EDC-FB28-5C41-A4AA-3543E6E073C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Part</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>https://www.memoryexpress.com/Products/MX77774</t>
+  </si>
+  <si>
+    <t>PRIME X570-P</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,6 +642,15 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>205</v>
+      </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
